--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43005,6 +43005,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>36400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43040,6 +43040,41 @@
         <v>36400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>88400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43075,6 +43075,41 @@
         <v>88400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>286500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43110,6 +43110,41 @@
         <v>286500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43145,6 +43145,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>75500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43180,6 +43180,41 @@
         <v>75500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>34300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43215,6 +43215,41 @@
         <v>34300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>150500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43250,6 +43250,41 @@
         <v>150500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>795300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43285,6 +43285,41 @@
         <v>795300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43320,6 +43320,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>691800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43355,6 +43355,41 @@
         <v>691800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>40400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43390,6 +43390,43 @@
         <v>40400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43427,6 +43427,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>604900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>127900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43497,6 +43497,76 @@
         <v>127900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1236100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>452200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43567,6 +43567,41 @@
         <v>452200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43602,6 +43602,41 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>65200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43637,6 +43637,41 @@
         <v>65200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>56300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43672,6 +43672,41 @@
         <v>56300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>316300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43707,6 +43707,76 @@
         <v>316300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>475100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>245600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43777,6 +43777,41 @@
         <v>245600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>96100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43812,6 +43812,41 @@
         <v>96100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>212600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2665"/>
+  <dimension ref="A1:I2666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93687,6 +93687,41 @@
         <v>212600</v>
       </c>
     </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2666" t="n">
+        <v>430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2666"/>
+  <dimension ref="A1:I2667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93722,6 +93722,41 @@
         <v>430000</v>
       </c>
     </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I2667" t="n">
+        <v>331300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93757,6 +93757,41 @@
         <v>331300</v>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>436700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93792,6 +93792,41 @@
         <v>436700</v>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2669" t="n">
+        <v>228200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2669"/>
+  <dimension ref="A1:I2670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93827,6 +93827,41 @@
         <v>228200</v>
       </c>
     </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G2670" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2670" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I2670" t="n">
+        <v>260000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2670"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93862,6 +93862,41 @@
         <v>260000</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G2671" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2671" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I2671" t="n">
+        <v>514300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2671"/>
+  <dimension ref="A1:I2672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93897,6 +93897,41 @@
         <v>514300</v>
       </c>
     </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G2672" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H2672" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I2672" t="n">
+        <v>32300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2672"/>
+  <dimension ref="A1:I2673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93932,6 +93932,41 @@
         <v>32300</v>
       </c>
     </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2673" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H2673" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I2673" t="n">
+        <v>92900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2673"/>
+  <dimension ref="A1:I2674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93967,6 +93967,41 @@
         <v>92900</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2674" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I2674" t="n">
+        <v>406300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2674"/>
+  <dimension ref="A1:I2675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94002,6 +94002,41 @@
         <v>406300</v>
       </c>
     </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2675" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I2675" t="n">
+        <v>135100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2675"/>
+  <dimension ref="A1:I2676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94037,6 +94037,41 @@
         <v>135100</v>
       </c>
     </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2676" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I2676" t="n">
+        <v>56400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2676"/>
+  <dimension ref="A1:I2677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94072,6 +94072,41 @@
         <v>56400</v>
       </c>
     </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H2677" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I2677" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2677"/>
+  <dimension ref="A1:I2678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94107,6 +94107,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2678" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I2678" t="n">
+        <v>99800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2678"/>
+  <dimension ref="A1:I2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94142,6 +94142,41 @@
         <v>99800</v>
       </c>
     </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2679" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F2679" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G2679" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H2679" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I2679" t="n">
+        <v>21500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5012.xlsx
+++ b/data/5012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2679"/>
+  <dimension ref="A1:I2680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94177,6 +94177,41 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>TAANN</t>
+        </is>
+      </c>
+      <c r="E2680" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F2680" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G2680" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2680" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I2680" t="n">
+        <v>89100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
